--- a/FolderExcelFiles/I - SUBCRIBER/3. Transactions/transfer/transfer to wallet/2. Transfer - To - Wallet - Fail 1.xlsx
+++ b/FolderExcelFiles/I - SUBCRIBER/3. Transactions/transfer/transfer to wallet/2. Transfer - To - Wallet - Fail 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\AYA Subscriber App\FolderExcelFiles\I - SUBCRIBER\3. Transactions\transfer\transfer to wallet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC7F907-DEEA-4E78-8C93-1B4BFC68745C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10566F9-E00B-4748-BF6D-4B239E164795}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1432A72A-0386-441C-9E35-C35EB92B75C6}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4BE065-FC04-4F51-9602-B7E638619A1A}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
